--- a/Report/凤凰怡美.xlsx
+++ b/Report/凤凰怡美.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="465" windowWidth="28800" windowHeight="16260" tabRatio="938" activeTab="18"/>
+    <workbookView xWindow="4455" yWindow="465" windowWidth="28800" windowHeight="16260" tabRatio="938" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="关键指标" sheetId="1" r:id="rId1"/>
@@ -2727,44 +2727,7 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
+      <numFmt numFmtId="178" formatCode="0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -2885,7 +2848,35 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="178" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2939,10 +2930,19 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="0.0"/>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="0.0"/>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -31554,391 +31554,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R6:S8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" x="0"/>
-        <item h="1" x="9"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item x="7"/>
-        <item h="1" x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="80">
-        <item m="1" x="60"/>
-        <item m="1" x="68"/>
-        <item m="1" x="67"/>
-        <item m="1" x="77"/>
-        <item m="1" x="63"/>
-        <item m="1" x="70"/>
-        <item m="1" x="74"/>
-        <item m="1" x="62"/>
-        <item m="1" x="72"/>
-        <item m="1" x="61"/>
-        <item m="1" x="71"/>
-        <item m="1" x="58"/>
-        <item m="1" x="65"/>
-        <item m="1" x="59"/>
-        <item m="1" x="57"/>
-        <item m="1" x="73"/>
-        <item m="1" x="64"/>
-        <item x="56"/>
-        <item m="1" x="69"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item m="1" x="75"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item m="1" x="76"/>
-        <item m="1" x="66"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item m="1" x="78"/>
-        <item x="41"/>
-        <item x="43"/>
-        <item x="42"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="51"/>
-        <item x="54"/>
-        <item x="53"/>
-        <item x="52"/>
-        <item x="50"/>
-        <item x="49"/>
-        <item x="48"/>
-        <item x="55"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="4">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表12" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Y17:AC18" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" m="1" x="6"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" x="4"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="99">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="97"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i/>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="求和项:花费" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="求和项:点击" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="平均值项:点击均价" fld="8" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="求和项:曝光" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="求和项:商户浏览量" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="38">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="37">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表9" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="U6:U7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表10" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="U16:U17" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
@@ -31958,8 +31575,8 @@
         <item h="1" x="1"/>
         <item h="1" x="5"/>
         <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item x="8"/>
+        <item x="7"/>
+        <item h="1" x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -32049,13 +31666,13 @@
     <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="41">
+    <format dxfId="2">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -32063,261 +31680,71 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A6:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="7">
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F6:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="9">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" m="1" x="11"/>
+      <items count="5">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
         <item h="1" m="1" x="3"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="2"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" x="5"/>
-        <item h="1" x="0"/>
+      <items count="11">
         <item h="1" x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="141">
-        <item x="139"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
+        <item h="1" x="0"/>
+        <item h="1" x="9"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
         <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="31"/>
-        <item x="43"/>
-        <item x="42"/>
-        <item x="41"/>
-        <item x="40"/>
-        <item x="39"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="36"/>
-        <item x="35"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="63"/>
-        <item x="62"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowItems count="1">
     <i/>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
+  <colItems count="1">
     <i/>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="2">
     <pageField fld="0" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
   </pageFields>
-  <dataFields count="4">
-    <dataField name="浏览量" fld="3" baseField="0" baseItem="1"/>
-    <dataField name="访客数" fld="4" baseField="0" baseItem="1"/>
-    <dataField name="平均停留时长" fld="5" subtotal="average" baseField="0" baseItem="2"/>
-    <dataField name="跳失率" fld="6" subtotal="average" baseField="0" baseItem="3"/>
+  <dataFields count="1">
+    <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="5">
-    <format dxfId="46">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="45">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="44">
+  <formats count="3">
+    <format dxfId="40">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A16:D17" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="7">
@@ -32533,7 +31960,7 @@
     <dataField name="跳失率" fld="6" subtotal="average" baseField="0" baseItem="3"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="51">
+    <format dxfId="45">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32542,7 +31969,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32551,13 +31978,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="43">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="42">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -32571,7 +31998,481 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L6:M11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" x="0"/>
+        <item h="1" x="9"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item x="7"/>
+        <item h="1" x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="268">
+        <item m="1" x="260"/>
+        <item m="1" x="253"/>
+        <item m="1" x="236"/>
+        <item m="1" x="227"/>
+        <item m="1" x="231"/>
+        <item m="1" x="246"/>
+        <item x="0"/>
+        <item m="1" x="242"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item m="1" x="248"/>
+        <item m="1" x="230"/>
+        <item x="4"/>
+        <item m="1" x="251"/>
+        <item m="1" x="234"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item m="1" x="244"/>
+        <item m="1" x="258"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item m="1" x="263"/>
+        <item m="1" x="243"/>
+        <item m="1" x="255"/>
+        <item m="1" x="240"/>
+        <item m="1" x="249"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item m="1" x="261"/>
+        <item x="13"/>
+        <item m="1" x="254"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item m="1" x="228"/>
+        <item m="1" x="245"/>
+        <item m="1" x="259"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item m="1" x="265"/>
+        <item x="20"/>
+        <item m="1" x="257"/>
+        <item x="21"/>
+        <item m="1" x="250"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item m="1" x="262"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item m="1" x="239"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item m="1" x="237"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item m="1" x="252"/>
+        <item m="1" x="235"/>
+        <item m="1" x="247"/>
+        <item m="1" x="266"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item m="1" x="232"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item m="1" x="238"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item m="1" x="264"/>
+        <item x="84"/>
+        <item m="1" x="256"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item m="1" x="241"/>
+        <item x="95"/>
+        <item m="1" x="233"/>
+        <item x="226"/>
+        <item x="102"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="111"/>
+        <item m="1" x="229"/>
+        <item x="3"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="136"/>
+        <item x="135"/>
+        <item x="134"/>
+        <item x="133"/>
+        <item x="132"/>
+        <item x="131"/>
+        <item x="130"/>
+        <item x="129"/>
+        <item x="128"/>
+        <item x="127"/>
+        <item x="126"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="143"/>
+        <item x="142"/>
+        <item x="141"/>
+        <item x="140"/>
+        <item x="139"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="155"/>
+        <item x="154"/>
+        <item x="153"/>
+        <item x="152"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="179"/>
+        <item x="178"/>
+        <item x="177"/>
+        <item x="176"/>
+        <item x="175"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="186"/>
+        <item x="185"/>
+        <item x="184"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="196"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="63">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="27">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="5">
+    <i/>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:订单来源" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="51">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="47">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表13" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="AF1:AJ33" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="16">
@@ -32765,7 +32666,1064 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+  <location ref="A20:C44" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField compact="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" compact="0" showAll="0" defaultSubtotal="0">
+      <items count="10">
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item h="1" x="9"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" dataField="1" compact="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="25">
+        <item x="1"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="21"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="20"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="18"/>
+        <item x="24"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i t="grand"/>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:顾客标签" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表12" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Y17:AC18" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" x="4"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="99">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="97"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i/>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="求和项:花费" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="求和项:点击" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="平均值项:点击均价" fld="8" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="求和项:曝光" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="求和项:商户浏览量" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O6:P11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" x="0"/>
+        <item h="1" x="9"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="80">
+        <item m="1" x="60"/>
+        <item m="1" x="68"/>
+        <item m="1" x="67"/>
+        <item m="1" x="77"/>
+        <item m="1" x="63"/>
+        <item m="1" x="70"/>
+        <item m="1" x="74"/>
+        <item m="1" x="62"/>
+        <item m="1" x="72"/>
+        <item m="1" x="61"/>
+        <item m="1" x="71"/>
+        <item m="1" x="58"/>
+        <item m="1" x="65"/>
+        <item m="1" x="59"/>
+        <item m="1" x="57"/>
+        <item m="1" x="73"/>
+        <item m="1" x="64"/>
+        <item x="56"/>
+        <item m="1" x="69"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item m="1" x="75"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item m="1" x="76"/>
+        <item m="1" x="66"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item m="1" x="78"/>
+        <item x="41"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="51"/>
+        <item x="54"/>
+        <item x="53"/>
+        <item x="52"/>
+        <item x="50"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item x="55"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="5">
+    <i/>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="11">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表9" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="U6:U7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="11">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="9"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="1"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="57">
+        <item x="55"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="14">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表11" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Y6:AC7" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" x="4"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="99">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="97"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i/>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="求和项:花费" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="求和项:点击" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="平均值项:点击均价" fld="8" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="求和项:曝光" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="求和项:商户浏览量" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R6:S8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" x="0"/>
+        <item h="1" x="9"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item x="7"/>
+        <item h="1" x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="80">
+        <item m="1" x="60"/>
+        <item m="1" x="68"/>
+        <item m="1" x="67"/>
+        <item m="1" x="77"/>
+        <item m="1" x="63"/>
+        <item m="1" x="70"/>
+        <item m="1" x="74"/>
+        <item m="1" x="62"/>
+        <item m="1" x="72"/>
+        <item m="1" x="61"/>
+        <item m="1" x="71"/>
+        <item m="1" x="58"/>
+        <item m="1" x="65"/>
+        <item m="1" x="59"/>
+        <item m="1" x="57"/>
+        <item m="1" x="73"/>
+        <item m="1" x="64"/>
+        <item x="56"/>
+        <item m="1" x="69"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item m="1" x="75"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item m="1" x="76"/>
+        <item m="1" x="66"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item m="1" x="78"/>
+        <item x="41"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="51"/>
+        <item x="54"/>
+        <item x="53"/>
+        <item x="52"/>
+        <item x="50"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item x="55"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="23">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I6:J11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="12">
@@ -33210,16 +34168,16 @@
     <dataField name="计数项:订单来源" fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="10">
+    <format dxfId="29">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="27">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -33228,10 +34186,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -33239,100 +34197,45 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F6:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="9">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A6:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="7">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
+      <items count="17">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" m="1" x="11"/>
         <item h="1" m="1" x="3"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="2"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="11">
+      <items count="7">
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="3"/>
-        <item h="1" x="0"/>
-        <item h="1" x="9"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="13">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表10" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="U16:U17" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="11">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="9"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="1"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item x="7"/>
-        <item h="1" x="8"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="57">
-        <item x="55"/>
+      <items count="141">
+        <item x="139"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -33364,329 +34267,19 @@
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
-        <item x="31"/>
+        <item x="34"/>
         <item x="33"/>
         <item x="32"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
+        <item x="31"/>
+        <item x="43"/>
         <item x="42"/>
         <item x="41"/>
-        <item x="46"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="43"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="16">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O6:P11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" x="0"/>
-        <item h="1" x="9"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="80">
-        <item m="1" x="60"/>
-        <item m="1" x="68"/>
-        <item m="1" x="67"/>
-        <item m="1" x="77"/>
-        <item m="1" x="63"/>
-        <item m="1" x="70"/>
-        <item m="1" x="74"/>
-        <item m="1" x="62"/>
-        <item m="1" x="72"/>
-        <item m="1" x="61"/>
-        <item m="1" x="71"/>
-        <item m="1" x="58"/>
-        <item m="1" x="65"/>
-        <item m="1" x="59"/>
-        <item m="1" x="57"/>
-        <item m="1" x="73"/>
-        <item m="1" x="64"/>
-        <item x="56"/>
-        <item m="1" x="69"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item m="1" x="75"/>
-        <item x="34"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="36"/>
         <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item m="1" x="76"/>
-        <item m="1" x="66"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item m="1" x="78"/>
-        <item x="41"/>
-        <item x="43"/>
-        <item x="42"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="51"/>
-        <item x="54"/>
-        <item x="53"/>
-        <item x="52"/>
-        <item x="50"/>
-        <item x="49"/>
-        <item x="48"/>
-        <item x="55"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="5">
-    <i/>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="21">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="20">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="18">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表11" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Y6:AC7" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" m="1" x="6"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" x="4"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="99">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
         <item x="44"/>
         <item x="45"/>
         <item x="46"/>
@@ -33704,12 +34297,11 @@
         <item x="58"/>
         <item x="59"/>
         <item x="60"/>
-        <item x="97"/>
         <item x="61"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="63"/>
         <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
         <item x="66"/>
         <item x="67"/>
         <item x="68"/>
@@ -33741,21 +34333,55 @@
         <item x="94"/>
         <item x="95"/>
         <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
   </pivotFields>
   <rowItems count="1">
     <i/>
@@ -33763,7 +34389,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="4">
     <i/>
     <i i="1">
       <x v="1"/>
@@ -33774,24 +34400,20 @@
     <i i="3">
       <x v="3"/>
     </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
   </colItems>
   <pageFields count="3">
     <pageField fld="0" hier="-1"/>
     <pageField fld="1" hier="-1"/>
     <pageField fld="2" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="求和项:花费" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="求和项:点击" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="平均值项:点击均价" fld="8" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="求和项:曝光" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="求和项:商户浏览量" fld="9" baseField="0" baseItem="0"/>
+  <dataFields count="4">
+    <dataField name="浏览量" fld="3" baseField="0" baseItem="1"/>
+    <dataField name="访客数" fld="4" baseField="0" baseItem="1"/>
+    <dataField name="平均停留时长" fld="5" subtotal="average" baseField="0" baseItem="2"/>
+    <dataField name="跳失率" fld="6" subtotal="average" baseField="0" baseItem="3"/>
   </dataFields>
-  <formats count="4">
-    <format dxfId="25">
+  <formats count="5">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -33800,17 +34422,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="33">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
-            <x v="4"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -33820,7 +34451,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F16:F17" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="9">
@@ -33870,647 +34501,16 @@
     <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="28">
+    <format dxfId="37">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L6:M11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" x="0"/>
-        <item h="1" x="9"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item x="7"/>
-        <item h="1" x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="268">
-        <item m="1" x="260"/>
-        <item m="1" x="253"/>
-        <item m="1" x="236"/>
-        <item m="1" x="227"/>
-        <item m="1" x="231"/>
-        <item m="1" x="246"/>
-        <item x="0"/>
-        <item m="1" x="242"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item m="1" x="248"/>
-        <item m="1" x="230"/>
-        <item x="4"/>
-        <item m="1" x="251"/>
-        <item m="1" x="234"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item m="1" x="244"/>
-        <item m="1" x="258"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item m="1" x="263"/>
-        <item m="1" x="243"/>
-        <item m="1" x="255"/>
-        <item m="1" x="240"/>
-        <item m="1" x="249"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item m="1" x="261"/>
-        <item x="13"/>
-        <item m="1" x="254"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item m="1" x="228"/>
-        <item m="1" x="245"/>
-        <item m="1" x="259"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item m="1" x="265"/>
-        <item x="20"/>
-        <item m="1" x="257"/>
-        <item x="21"/>
-        <item m="1" x="250"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item m="1" x="262"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item m="1" x="239"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item m="1" x="237"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item m="1" x="252"/>
-        <item m="1" x="235"/>
-        <item m="1" x="247"/>
-        <item m="1" x="266"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item m="1" x="232"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item m="1" x="238"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item m="1" x="264"/>
-        <item x="84"/>
-        <item m="1" x="256"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item m="1" x="241"/>
-        <item x="95"/>
-        <item m="1" x="233"/>
-        <item x="226"/>
-        <item x="102"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="111"/>
-        <item m="1" x="229"/>
-        <item x="3"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="136"/>
-        <item x="135"/>
-        <item x="134"/>
-        <item x="133"/>
-        <item x="132"/>
-        <item x="131"/>
-        <item x="130"/>
-        <item x="129"/>
-        <item x="128"/>
-        <item x="127"/>
-        <item x="126"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="143"/>
-        <item x="142"/>
-        <item x="141"/>
-        <item x="140"/>
-        <item x="139"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="155"/>
-        <item x="154"/>
-        <item x="153"/>
-        <item x="152"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="179"/>
-        <item x="178"/>
-        <item x="177"/>
-        <item x="176"/>
-        <item x="175"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="186"/>
-        <item x="185"/>
-        <item x="184"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="196"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="63">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="27">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="5">
-    <i/>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:订单来源" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="34">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="31">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="30">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="29">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
-  <location ref="A20:C44" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField compact="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisCol" compact="0" showAll="0" defaultSubtotal="0">
-      <items count="10">
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item h="1" x="9"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" dataField="1" compact="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="25">
-        <item x="1"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="21"/>
-        <item x="16"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="19"/>
-        <item x="14"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="0"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="20"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="18"/>
-        <item x="24"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="23">
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i t="grand"/>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="计数项:顾客标签" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
@@ -62286,7 +62286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="124" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -64160,8 +64160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
